--- a/data/extracted_data/raw_round2/data/Stewart_etal_1998_Fig3.xlsx
+++ b/data/extracted_data/raw_round2/data/Stewart_etal_1998_Fig3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{8131C200-A535-0944-9476-C915557EF205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D19F87C2-6B9E-CE43-B314-327891946228}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{8131C200-A535-0944-9476-C915557EF205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4DD975-D80E-C246-ACE5-73A94E935149}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{87821D4A-14DA-A44A-BB68-78B6D619AAB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>day</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Depuration</t>
+  </si>
+  <si>
+    <t>Uptake</t>
   </si>
 </sst>
 </file>
@@ -101,10 +104,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,7 +406,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +427,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -439,7 +438,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -450,7 +449,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
